--- a/assets/planos/PA - MQV - Plano de Ação 2023.xlsx
+++ b/assets/planos/PA - MQV - Plano de Ação 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.gontijo\Desktop\DSUSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{896D897B-087D-4532-B5BC-3F8395FE2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BD93116-6BA8-432B-ACDF-3AAC7467C407}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{896D897B-087D-4532-B5BC-3F8395FE2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F1CDE7B-3F63-48F5-A358-4999259659C9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="573" xr2:uid="{317DE164-AE1E-402C-AB8E-CAABBD5F8C60}"/>
   </bookViews>
@@ -438,19 +438,19 @@
     <t xml:space="preserve">"A Organização Mundial de Saúde caracterizar a atividade policial como insalubre e geradora de imenso estresse pelo esforço físico e mental. Neste sentido, durante a Convenção nº 155 da Organização Internacional do Trabalho da Organização das Nações Unidas, a atividade policial foi classificada como a 2ª profissão mais estressante de todo o mundo. O Sistema de Segurança Pública do Pará agrega  Instituições, com missões e características próprias, cuja finalidade é proteger os cidadãos, através de suas  atividades desenvolvidas, avaliadas como desgastantes e estressantes, pois convivem diariamente com situações de risco, haja vista que os profissionais encontram-se expostos a elevados coeficientes de estresse e pressão.
 Em ralação aos atendimentos Biopsicossociais voltados à prevenção do suicídio aos servidores do Sistema de Segurança Pública do Estado do Pará, serviço esse já ofertado pela SSP/PA, através da nossa Diretoria de Prevenção Social (DPS), e conforme dados obtidos no período de 06/06/2022 à 05/06/2023, foram realizados 1995 atendimentos, representando os seguintes percentuais: SEAP 46%, PMPA 29%, SEGUP 13%, CBM 9,3% e PCPA 2,7%.
 No que tange à prática de atividade físisca, e considerando que o serviço desempenhado pelos agentes de segurança pública, o qual requer um bom condicionamento físico para o cumprimento de suas atividades cotidianas. Assim, a Educação Física desempenha papel fundamental, proporcionando resultados concretos para estes profissionais, no sentido de aperfeiçoar, controlar e manter a saúde física e mental. Desta forma, conforme dados obtidos durante as avaliações de bioimpedância feitas pelo Núcleo de Capacitação Física e Profissional do IESP - NUCAF, constatou-se que 70% dos agentes atendidos e submetidos ao protocolo de avaliação física de composição corporal (Índice de Massa Corporal, Índice de Gordura Visceral) e condicionamento cardiorespiratorio (Teste Cooper)  apresentaram indices abaixo do resultado esperado.  Segundo o corpo de bombeiros do estado feitas no efetivo do curso de habilitação ao oficialato 2023, 70,7% dos militares estão com obesidade leve a moderada.
-Assim, visando a saúde física e mental dos seus servidores, a Secretaria de Segurança Pública e Defesa Social (SEGUP) busca a aquisição e instalação de equipamentos voltados para o Treinamento Resistido em Academias de Musculação,  e contratação de empresa especializada para atendimento Biopsicossocial para atuar na prevenção de doenças físicas e mentais. </t>
+</t>
   </si>
   <si>
     <t>Justificativa (limitada a 1000 caracteres)</t>
   </si>
   <si>
-    <t xml:space="preserve">Com base no diagnóstico acima descrito resta inequívoca a necessidade de intervenção do Estado em promover ações visando o melhoramento físico e mental destes profissionais,visando promover a melhoria em sua qualidade de vida, saúde e desempenho de suas atividades legais.              </t>
+    <t xml:space="preserve">Com base no diagnóstico acima descrito resta inequívoca a necessidade de intervenção do Estado em promover ações visando o melhoramento físico e mental destes profissionais,visando promover a melhoria em sua qualidade de vida, saúde e desempenho de suas atividades legais.  Assim, visando a saúde física e mental dos seus servidores, a Secretaria de Segurança Pública e Defesa Social (SEGUP) busca a aquisição e instalação de equipamentos voltados para o Treinamento Resistido em Academias de Musculação,  e contratação de empresa especializada para atendimento Biopsicossocial para atuar na prevenção de doenças físicas e mentais.             </t>
   </si>
   <si>
     <t>Meta Geral (limitado a 200 caraceteres)</t>
   </si>
   <si>
-    <t>Aumentar a oferta de atendimentos Biopsicossocias em 10 % , bem como da prática de atividade física nos municípios de Belém, Marituba e Castanhal.</t>
+    <t>Aumentar em 10% a disponibilidade de atendimentos Biopsicossociais e incentivar a prática de atividade física nos municípios de Belém, Marituba e Castanhal até 2025.</t>
   </si>
   <si>
     <t>Estratégia de Implementação (limitada a 1000 caracteres)</t>
@@ -459,7 +459,7 @@
     <t>Estratégia:</t>
   </si>
   <si>
-    <t xml:space="preserve">Para alcançar as metas estipuladas, serão adquiridos aparelhos de musculação para equipar cinco (05) academias para os servidores de Segurança Pública do Estado.  A divisão se dará da seguinte forma:  Meta específica 1 através da AÇÃO 1-Uma (01) academia para  5º Batalhão da Policia Militar sediado em castanhal-Pa, Meta específica 2 através da AÇÃO 2 Duas (02)  academias  para o Corpo de Bombeiros Militar  sendo  uma (01)  1º GBM Belém e outra para o Centro de Formação e Aperfeiçoamento e Especialização (CFAE) em Ananindeua. Meta específica 3 através da AÇÃO 3 Uma (01) academia para o Instituto de Ensino e Segurança Pública do Estado (IESP) e Meta específica 4 atraves da AÇÃO 4uma para o Grupamento Aéreo de Segurança Pública da SEGUP(GRAESP). Meta específica 5. atraves das Ações 5 a 8 ambas voltadas ao  acompanhamento e tratamento de saúde  e prevenção ao suicídioi TODAS AS METAS E SUAS RESPECTIVAS AÇÕES TEM POR FINALIDADE promover uma melhoria na qualidade de vida, saúde, prevenção ao suicídio e desempenho das suas atividades legais destes agentes de segurança.               </t>
+    <t>Para alcançar as metas estipuladas, serão adquiridos aparelhos de musculação para equipar cinco academias destinadas aos servidores de Segurança Pública do Estado. Essas academias estarão localizadas no 5º Batalhão da Polícia Militar em Castanhal, no 1º Grupamento de Bombeiros Militar em Belém, no Centro de Formação e Aperfeiçoamento e Especialização (CFAE) em Ananindeua, no Instituto de Ensino e Segurança Pública do Estado (IESP) e no Grupamento Aéreo de Segurança Pública da SEGUP (GRAESP). O objetivo é incentivar a prática de atividade física entre os profissionais de segurança pública, promovendo acompanhamento médico, tratamento de saúde e prevenção ao suicídio, com o propósito de melhorar a qualidade de vida e o desempenho de suas atividades legais</t>
   </si>
   <si>
     <t xml:space="preserve"> I - produção de diagnóstico detalhado do problema que se quer enfrentar:</t>
@@ -505,13 +505,13 @@
     <t>01</t>
   </si>
   <si>
-    <t xml:space="preserve">Aumentar a prática regular de atividade fisíca nas unidades do 5º BPM no município de Castanhal, no QCG, 1º GBM  e Grupamento Aéreo de Segurança Pública da SEGUP(GRAESP)no município de Belém,  e no Instituto de Ensino e Segurança Pública do Estado (IESP) no município de Marituba. </t>
+    <t xml:space="preserve">Implementar  programas de exercícios regulares nas unidades do 5º BPM no município de Castanhal, no QCG, 1º GBM  e Grupamento Aéreo de Segurança Pública da SEGUP(GRAESP) no município de Belém,  e no Instituto de Ensino e Segurança Pública do Estado (IESP) no município de Marituba, até 2025. </t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
-    <t>Aumentar a capacidade de oferta de atendimentos psiquiátricos e psicológicos aos servidores do SIEDS (pertencentes à PMPA, ao CBMPA, à PCPA, à Polícia Científica/PA e à SEAP/PA)</t>
+    <t>Elevar em 10% o número de atendimentos psiquiátricos e psicológicos aos servidores do SIEDS (incluindo PMPA, CBMPA, PCPA, Polícia Científica/PA e SEAP/PA) até 2025.</t>
   </si>
   <si>
     <t>03</t>
@@ -619,10 +619,10 @@
     <t>UNID</t>
   </si>
   <si>
-    <t>Avaliação da composição corporal</t>
-  </si>
-  <si>
-    <t>Avaliação de Bioimpedancia e Avaliação cardiorrepiratório.</t>
+    <t>Aquisição de equipamentos voltados a prática de atividade física</t>
+  </si>
+  <si>
+    <t>Variação da Quantidade de equipamentos antes das aquisições/Quantidade de equipamentos depois das aquisições.</t>
   </si>
   <si>
     <t>6 (seis) meses</t>
@@ -2585,7 +2585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2710,21 +2710,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2737,9 +2750,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2762,58 +2772,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3189,8 +3177,8 @@
   </sheetPr>
   <dimension ref="A1:Q1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="24" customHeight="1"/>
@@ -3215,48 +3203,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="103.5" customHeight="1">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="22">
         <v>2023</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="61.5">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="2"/>
@@ -3277,134 +3265,134 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" ht="30.75" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="8" spans="1:16" ht="30.75" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:16" ht="30.75" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
     </row>
     <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="8"/>
@@ -3425,134 +3413,134 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="1:16" ht="30.75" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="30.75" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
     </row>
     <row r="14" spans="1:16" ht="30.75" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:16" ht="30.75" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" ht="30.75" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
     </row>
     <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="7"/>
@@ -3573,520 +3561,520 @@
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="50.25" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="141.75" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="63"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:16" ht="141.75" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="63"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="49"/>
     </row>
     <row r="21" spans="1:16" ht="141.75" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
     </row>
     <row r="23" spans="1:16" ht="150.75" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="64" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="66"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
     </row>
     <row r="24" spans="1:16" ht="18.75">
-      <c r="A24" s="43"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
     </row>
     <row r="25" spans="1:16" ht="142.5" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="66"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="1:16" ht="18.75">
-      <c r="A26" s="43"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
     </row>
     <row r="27" spans="1:16" ht="109.5" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="64" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="66"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" ht="18.75">
-      <c r="A28" s="43"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
     </row>
     <row r="29" spans="1:16" ht="116.25" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="64" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="66"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
     </row>
     <row r="30" spans="1:16" ht="18.75">
-      <c r="A30" s="43"/>
-      <c r="B30" s="48" t="s">
+      <c r="A30" s="59"/>
+      <c r="B30" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
     </row>
     <row r="31" spans="1:16" ht="104.25" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="64" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="66"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="58"/>
     </row>
     <row r="32" spans="1:16" ht="236.25" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
     </row>
     <row r="33" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="61" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="49"/>
     </row>
     <row r="34" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="59"/>
+      <c r="B34" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="61" t="s">
+      <c r="C34" s="61"/>
+      <c r="D34" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="63"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
     </row>
     <row r="35" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="46"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="49"/>
     </row>
     <row r="36" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="39" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="46"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="39" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="46"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="49"/>
     </row>
     <row r="38" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="39" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
     </row>
     <row r="39" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="39" t="s">
+      <c r="A39" s="59"/>
+      <c r="B39" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
     </row>
     <row r="40" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="59"/>
+      <c r="B40" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
     </row>
     <row r="41" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="39" t="s">
+      <c r="A41" s="59"/>
+      <c r="B41" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
     </row>
     <row r="42" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="39" t="s">
+      <c r="A42" s="59"/>
+      <c r="B42" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
     </row>
     <row r="43" spans="1:16" ht="2.25" customHeight="1">
       <c r="A43" s="7"/>
@@ -4233,56 +4221,56 @@
       <c r="P51" s="7"/>
     </row>
     <row r="52" spans="1:17" ht="36.75" customHeight="1">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
     </row>
     <row r="53" spans="1:17" ht="36" customHeight="1">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41" t="s">
+      <c r="C53" s="63"/>
+      <c r="D53" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41" t="s">
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41" t="s">
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="P53" s="41"/>
+      <c r="P53" s="63"/>
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="66" customHeight="1">
-      <c r="A54" s="41"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="24" t="s">
         <v>59</v>
       </c>
@@ -4382,7 +4370,7 @@
     </row>
     <row r="56" spans="1:17" ht="80.25" customHeight="1">
       <c r="A56" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>43</v>
@@ -4432,7 +4420,7 @@
     </row>
     <row r="57" spans="1:17" ht="80.25" customHeight="1">
       <c r="A57" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>45</v>
@@ -4482,7 +4470,7 @@
     </row>
     <row r="58" spans="1:17" ht="80.25" customHeight="1">
       <c r="A58" s="25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>46</v>
@@ -4532,7 +4520,7 @@
     </row>
     <row r="59" spans="1:17" ht="80.25" customHeight="1">
       <c r="A59" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>47</v>
@@ -4555,7 +4543,7 @@
       <c r="H59" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I59" s="67">
+      <c r="I59" s="39">
         <v>2700</v>
       </c>
       <c r="J59" s="28" t="s">
@@ -4582,7 +4570,7 @@
     </row>
     <row r="60" spans="1:17" ht="80.25" customHeight="1">
       <c r="A60" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>48</v>
@@ -4605,7 +4593,7 @@
       <c r="H60" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I60" s="67">
+      <c r="I60" s="39">
         <v>2700</v>
       </c>
       <c r="J60" s="28" t="s">
@@ -4632,7 +4620,7 @@
     </row>
     <row r="61" spans="1:17" ht="80.25" customHeight="1">
       <c r="A61" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>49</v>
@@ -4655,7 +4643,7 @@
       <c r="H61" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I61" s="67">
+      <c r="I61" s="39">
         <v>1950</v>
       </c>
       <c r="J61" s="28" t="s">
@@ -4682,7 +4670,7 @@
     </row>
     <row r="62" spans="1:17" ht="80.25" customHeight="1">
       <c r="A62" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>50</v>
@@ -4705,7 +4693,7 @@
       <c r="H62" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I62" s="67">
+      <c r="I62" s="39">
         <v>1950</v>
       </c>
       <c r="J62" s="28" t="s">
@@ -21707,37 +21695,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2JGoNLOIwOg8qYKXAAXF5pCIYOZ/ii1ie8J//28fNTTF84UEUgQ1IsDmpwyE7bXvBJNvGEbq80cdM0/Af01YPw==" saltValue="r5Z1/dM24L+eGEQwhAwjyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0"/>
   <mergeCells count="59">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B8:P8"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B31:P31"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:K53"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="D33:P33"/>
     <mergeCell ref="D34:P34"/>
@@ -21754,18 +21723,37 @@
     <mergeCell ref="D42:P42"/>
     <mergeCell ref="D37:P37"/>
     <mergeCell ref="D38:P38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B31:P31"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:L1"/>
   </mergeCells>
   <dataValidations count="11">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17 I43:K51 I1006:K1048576" xr:uid="{5D7C397E-12F3-449F-86FE-0120D5AA2AFD}">
@@ -24121,9 +24109,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24271,16 +24262,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875555F2-42E6-4A58-82DB-85F28B4556E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C962F554-A6D7-4090-ADC7-5D91B902DF50}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24288,5 +24276,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C962F554-A6D7-4090-ADC7-5D91B902DF50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875555F2-42E6-4A58-82DB-85F28B4556E7}"/>
 </file>